--- a/translation/xlsx/_tsum_014.xlsx
+++ b/translation/xlsx/_tsum_014.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="884">
   <si>
     <t>actor</t>
   </si>
@@ -1230,7 +1230,7 @@
     <t>The talismans had the word \"maggot\" on them.</t>
   </si>
   <si>
-    <t>면죄부에 '구더기'라는 글자가 들어 있는 것도 그 흔적이다.</t>
+    <t>면죄부의 내용에 언급된 '구더기'도 그 흔적이다.</t>
   </si>
   <si>
     <t xml:space="preserve">면죄부에 '구더기'라는 글자가 들어 있는 것도 그 흔적일 것이다. </t>
@@ -2424,6 +2424,9 @@
     <t>The Three Families, especially the Sonozaki family, have a great influence over the region and the public organizations...</t>
   </si>
   <si>
+    <t xml:space="preserve">특히 소노자키 가문은 지역이나 공공기관에 막강한 영향력을 갖고 있기도 하다.... </t>
+  </si>
+  <si>
     <t xml:space="preserve">특히 소노자키 가문은 지역이나 공공기관에 막강한 영향력을 갖고 있기도 하다... </t>
   </si>
   <si>
@@ -2434,6 +2437,9 @@
   </si>
   <si>
     <t>...What's going on here...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">......왜일까. </t>
   </si>
   <si>
     <t xml:space="preserve">......왤까 </t>
@@ -3002,7 +3008,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="10.0"/>
-    <col customWidth="1" hidden="1" min="2" max="2" width="102.38"/>
+    <col customWidth="1" min="2" max="2" width="102.38"/>
     <col customWidth="1" min="3" max="3" width="18.88"/>
     <col customWidth="1" min="4" max="4" width="119.75"/>
     <col customWidth="1" min="5" max="5" width="9.25"/>
@@ -6196,343 +6202,343 @@
       </c>
       <c r="H177" s="6"/>
       <c r="I177" s="4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="B178" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H178" s="6"/>
       <c r="I178" s="4" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="B179" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H179" s="6"/>
       <c r="I179" s="4" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="B180" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="H180" s="6"/>
       <c r="I180" s="4" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="B181" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="H181" s="6"/>
       <c r="I181" s="4" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="B182" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="H182" s="6"/>
       <c r="I182" s="4" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="B183" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="H183" s="6"/>
       <c r="I183" s="4" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="B184" s="2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="H184" s="6"/>
       <c r="I184" s="4" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="B185" s="2" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H185" s="6"/>
       <c r="I185" s="4" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="B186" s="2" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H186" s="6"/>
       <c r="I186" s="4" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="B187" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="H187" s="6"/>
       <c r="I187" s="4" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="B188" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="H188" s="6"/>
       <c r="I188" s="4" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="H189" s="6"/>
       <c r="I189" s="4" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="H190" s="6"/>
       <c r="I190" s="4" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="B191" s="2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="H191" s="6"/>
       <c r="I191" s="11" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="B192" s="2" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="H192" s="6"/>
       <c r="I192" s="4" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="H193" s="6"/>
       <c r="I193" s="4" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="B194" s="2" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="H194" s="6"/>
       <c r="I194" s="4" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="B195" s="2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="H195" s="6"/>
       <c r="I195" s="4" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">

--- a/translation/xlsx/_tsum_014.xlsx
+++ b/translation/xlsx/_tsum_014.xlsx
@@ -339,7 +339,7 @@
     <t>but they couldn't because of their jobs. The conflict made them weak physically and mentally. Some of them went crazy and tried to escape from their reality by committing suicide or running away.</t>
   </si>
   <si>
-    <t xml:space="preserve">그러니 일과 현실적 여건 때문에 돌아가지 못하고 마음에 갈등을 겪으면서, 몸과 마음이 쇠약해지고 심지어는 정신 이상을 일으켜 탈주나 자살 같은 도피행위까지 벌였다고 한다. </t>
+    <t xml:space="preserve">그러나 일과 현실적 여건 때문에 돌아가지 못하고 마음에 갈등을 겪으면서, 몸과 마음이 쇠약해지고 심지어는 정신 이상을 일으켜 탈주나 자살 같은 도피행위까지 벌였다고 한다. </t>
   </si>
   <si>
     <t xml:space="preserve">일 때문에 돌아가지 못하는 갈등을 겪으면서, 몸과 마음이 쇠약해지고 심지어는 정신 이상을 일으켜 탈주나 자살 같은 도피행위까지 벌였다고 한다. </t>
